--- a/data/285_P_label_case.xlsx
+++ b/data/285_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,86 +918,6 @@
         <v>0.002132414454071074</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>0.8164899999999999</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.001771808225766272</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>0.8346399999999999</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.00143903885770388</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>0.85278</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.001139499869687533</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>0.87113</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.0008685222694348433</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>0.8894799999999999</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.0006336637491419756</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>0.90784</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.0004354628763482624</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0.92619</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.0002740387912534443</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0.9446399999999999</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.000146872023673753</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0.96309</v>
-      </c>
-      <c r="B69" t="n">
-        <v>5.748189847966823e-05</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0.98155</v>
-      </c>
-      <c r="B70" t="n">
-        <v>6.354608511745294e-06</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
